--- a/biology/Zoologie/Cassenoix_d'Amérique/Cassenoix_d'Amérique.xlsx
+++ b/biology/Zoologie/Cassenoix_d'Amérique/Cassenoix_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassenoix_d%27Am%C3%A9rique</t>
+          <t>Cassenoix_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nucifraga columbiana
 Le Cassenoix d'Amérique (Nucifraga columbiana), est une espèce de passereaux de la famille des Corvidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassenoix_d%27Am%C3%A9rique</t>
+          <t>Cassenoix_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cassenoix d'Amérique est plus petit que le cassenoix moucheté (N. caryocatactes) eurasiatique. Son plumage est gris cendre sauf ses ailes (noires et blanches).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassenoix_d%27Am%C3%A9rique</t>
+          <t>Cassenoix_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition et habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les régions de l'ouest de l'Amérique du Nord, depuis la Colombie-Britannique jusqu'à la Basse-Californie et le Nouveau-Mexique. Son habitat est celui des forêts de pins de haute altitude (900-3900 mètres).
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cassenoix_d%27Am%C3%A9rique</t>
+          <t>Cassenoix_d'Amérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit des graines de pin.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cassenoix_d%27Am%C3%A9rique</t>
+          <t>Cassenoix_d'Amérique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taille : 30 cm
 Poids : 106 à 161 g</t>
